--- a/processing/test/20230613-a1r-nc-session3-c_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-c_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-c_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,370 +361,395 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="270.5" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:06"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Hello. My name is Mike Barnes. I'm 75 years old. I'm retired. And I live in Congress Arizona.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:06"</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:18"</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:18"</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Hi again, everybody. My name is John, I live in Harvard, Illinois, it's about 90 minutes Northwest of Chicago and I work as a nursing assistant.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:32"</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>I am Sam Thompson. I still live in Raleigh North Carolina and I've been retired for about eight years.</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"2:42"</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Good afternoon, everybody. Daniel Wills Montgomery, Alabama. Same as I was before, I'm glad to see everybody.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"2:53"</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"2:53"</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"3:03"</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>We can't hear you.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"3:08"</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>Hi everyone, it's peachy. I live in Gilbert Arizona. Good to see everybody. And hope. Everybody had a great weekend.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>10177</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"3:20"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>Hi. I'm Ashley, McGarry, I'm from Woodward Oklahoma and I'm 21.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>48665</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"3:27"</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>I am Mia. I am from Portland. Maine</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"3:33"</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Hello Alton Midland Texas where it's 98 Degrees to this afternoon and Sharon when you were on we couldn't I couldn't hear you. At least there wasn't any audio. So this will let you know that I'm in Midland, Texas.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"12:05"</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>I guess I'm a proponent of the online registration. We are able to sign up for Social Security. We're able to sign up for Medicare and we're actually able to pay our taxes through online access. So I don't see any reason why if all those things can be done securely and with confidence online, I don't see any reason why we can't register people to vote as well.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is in favor of online voter registration.
 2. They believe that signing up for Social Security, Medicare, and paying taxes online are all secure and reliable processes.
 3. The speaker suggests that if these activities can be done online, then voter registration should also be possible online.</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"12:31"</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>I don't have any problem with I guess registering. No matter how it is, but I do believe, there needs to be proper identification for votes to be counted. I know during the most recent, Arizona, in Maricopa, County reports are that there were hundreds of signatures verified by individual employees within an hour. So how and when the individual employee can verify several hundred signatures within an hour, I don't know how that can happen, but I think that's an</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker is open to registering, but believes that proper identification is necessary for votes to be counted.
 2. There were reports from the recent Arizona election in Maricopa County that individual employees verified hundreds of signatures within an hour.
@@ -730,94 +757,98 @@
 4. The speaker thinks that there are issues with the signature verification process in Arizona's election.</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"12:31"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>Issue.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"13:03"</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"13:03"</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t>Yep. That sounds like a legitimate concern and I agree with Sam with online registration. I think my favorite proposal is for automatic voting registration. As soon as you turn 18, you're eligible to vote. If you don't want to vote, just don't vote, you know and I don't know, people might consider that an infringement on their rights, so make it an opt-out thing. Where if you want to take the time and effort take yourself off a building roll, but why not? Just</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"13:03"</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Make it out America. And I think you would expand voting quite a bit. Maybe you could say, people are being lazy, if they don't want to register, but I think it would increase voting if you had it automatic.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests making voting easier in America.
 2. It is proposed to expand voting by making registration automatic.
@@ -825,30 +856,30 @@
 4. However, it is believed that automatic registration would increase voting.</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"13:46"</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
+      <c r="D21" s="6" t="inlineStr">
         <is>
           <t>I also like the idea of the automatic and you can just opt out by not voting. I disagree with the people that feel like having having to show ID limits, boaters. I'm not clear on that because even when I go to the doctor, I have to show my driver's license to show who I am. So I'm thinking the elderly, I'm thinking they're probably going to the doctor. They probably need to show their ID.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker likes the idea of automatic voting with an opt-out option.
 2. The speaker disagrees with people who think that showing ID limits the ability to vote, including boaters.
@@ -856,371 +887,383 @@
 4. The speaker wonders if the elderly, who may need to show ID at the doctor's office, might also be affected by voter ID laws.</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"13:46"</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>So I am in favor of automatic voter registration. I am against being able to register on the day of the election.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Argument in favor of automatic voter registration
-2. Argument against being able to register on the day of the election</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. In favor of automatic voter registration
+2. Against being able to register on the day of the election</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"14:28"</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"14:28"</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>I am in favor of all three of the voter registration proposals. I especially like the automatic voter registration and especially like having to require ID if you're voting in person.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. In favor of the first voter registration proposal.
 2. In favor of the second voter registration proposal: automatic voter registration.
 3. Especially in favor of requiring ID for in-person voting.</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"14:28"</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I live just outside of Maricopa County John and yes, that was a pretty big to do here in Arizona and I think it was Much Ado About Nothing. Like I said, I agree with almost with all three proposals.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"15:07"</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>Yeah, I just brought to mind that. I think the Republicans chose a certain group to recount the votes for the presidential election. And is, if I'm not mistaken in Arizona, it turned out that there are actually more votes for biting them hundred more votes or something. So, been in with the idea for the subject of ID's that just has to be fair, I think I thought I heard that, you know, there was a state that was allowing hunting licenses to be used as an ID but</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"15:07"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>That student ID. So I think that needs to be Universal. They can't just be one type of ID that might favor your voters versus another. It should be really just a driver's license or a personal ID.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The student ID should be universal.
 2. It should not favor voters of a particular type.
 3. Acceptable forms of ID include driver's license or personal ID.</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"15:49"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>I would agree with what John have to say. I am okay with the idea of automatic voting. I don't like the idea of registering on the day of I think there's enough access like Sam was saying before for online registration that I feel like if you know the I feel like that's good enough access for people as far as being able to register but II do believe.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"15:49"</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>That there should be some form of photo identification but I do agree with John. I'm on limiting the the types that would be valid.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests that there should be photo identification.
 2. The author agrees with John on this point.
 3. The author also agrees with limiting the types of valid photo identification.</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"16:34"</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>Yeah, most definitely and I know for for me anyway, here in Texas. As far as registration, it doesn't mean anything. I guess in terms of these questions, but anytime you go get your driver's license or state ID and you get it renewed. That's one of the things on the card is, do you want to register to vote? So anybody who has a state ID or driver's license has the opportunity on that card to go ahead and register to vote and John with what you're saying on the IDS. I</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"16:34"</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> agree. It needs to be something that is government issued and has the person's picture on it. Ideally, I think that would be the</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
+      <c r="E31" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" s="6" t="n"/>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"17:14"</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="D32" s="6" t="n"/>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"17:14"</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
+      <c r="D33" s="6" t="inlineStr">
         <is>
           <t>I agree. Also John, I agree also. I feel there should be some sort of universal our federal government mandated, or suggested.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with a certain viewpoint.
 2. The speaker specifies that John also agrees with this viewpoint.
-3. The speaker believes that there should be a universal or federal mandate or suggestion on a certain topic.</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
+3. The speaker believes that there should be a universal or federal mandated or suggested solution.</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"17:14"</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> ID nothing that is really required for one state to another state. I'm don't know, really how to word this, but I really feel there needs to be like, a universal type ID for that. And I would like to change how I feel about registry registering to vote on election.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"17:59"</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
+      <c r="D35" s="6" t="n"/>
+      <c r="E35" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F35" s="6" t="n"/>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"17:59"</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>Hi, I'm back. I don't I missed part of the previous conversations, but my point of view is that I think you should be able to register ahead of time or on the day of election day, but I firmly believe that you need to have government ID to vote because that's where the fraud would partake. Would come up, as act as the voting booth.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text outlines the speaker's opinion on voting registration and identification.
 2. The speaker believes that voters should have the option to register ahead of time or on the day of the election.
@@ -1229,30 +1272,30 @@
 5. The speaker suggests that the voting booth is where potential fraud could occur.</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"18:31"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>Yeah, just quickly make this comment and let Mike finish his thought that he got cut off with. But if you had the automatic system, then you wouldn't have to worry about day of voting registration. You doubted me automatically be registered to vote when you're 18.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is about making a quick comment and letting someone finish their thought.
 2. The comment refers to an automatic system for voting registration.
@@ -1261,182 +1304,185 @@
 5. The text states that the speaker was doubted about being automatically registered to vote at the age of 18.</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"18:47"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>One reason I'm opposed to the day of is we have this in the last election where there was a state where there was a runoff between candidates that happened after the November election, what's to prevent me from voting here in Arizona on the regular. And then going, I feel so strongly that I am going to register in that other state on the day of</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F38" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is expressing opposition to a specific day, which is not specified in the text.
 2. The opposition is based on an experience from the "last election" where there was a runoff between candidates in a certain state after the November election.
-3. The argument against the day is that it would allow for the possibility of an individual voting in one state and then registering in another state on the same day.
-4. This is seen as a potential issue because it could lead to voting in two different states in the same election.</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
+3. The argument against the day is that it would allow for the possibility of an individual voting in one state and then registering in another state on the same day, which is perceived as a problem.</t>
+        </is>
       </c>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"18:47"</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="D39" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> A of. So, I think there's some security issues in that.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"18:47"</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
+      <c r="D40" s="6" t="n"/>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n"/>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"19:27"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>I guess just to the sideline. A lot of you may not have the same issue based on where you live but living in Texas and now there's literally hundreds of thousands of people coming across the border and the Integrity of the election system as far as who was eligible to vote and having the ID to be able to prove that is important here in Texas at least and I'm sure other border states feel the same way.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker suggests moving the discussion to the sideline.
-2. The speaker mentions potential issues related to their location, Texas.
+2. The speaker mentions potential issues with the election system in Texas.
 3. There are large numbers of people coming across the border in Texas.
-4. The speaker is concerned about the integrity of the election system.
-5. The speaker believes it is important to verify the eligibility of voters in Texas.
-6. The speaker thinks it is important to ensure voters have the required ID.
-7. The speaker implies that other border states may share similar concerns.</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
+4. The integrity of the election system is important to the speaker.
+5. The speaker emphasizes the need for eligible voters to have the required ID in Texas.
+6. The speaker suggests that other border states may have similar concerns.</t>
+        </is>
       </c>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"21:38"</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>Well, since Nevada went to everybody gets a mail-in ballot. Now, in the mail, it was passed just this last year, there are so much chance of voter fraud, but they have, in my opinion, because people move around so much in this state that they can get like three or four other people's ballots that look.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"21:38"</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>In the same place as they do now before them. And they can just go drop that mail ballot in them in The Ballot Box. I just don't think it's a good idea.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"22:20"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>Yeah, I'm a proponent of mailing balance utilized to join covid and I've also utilized it multiple times whenever I was going to be out of my city due to business travel. It just seems like it's a very efficient way to vote. As far as how many days after election day, they should be counted. I don't see a problem when them being counted a few days afterwards to me, things don't change.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is in favor of using mail-in ballots to vote in the context of the COVID-19 pandemic.
 2. They have personally used mail-in ballots multiple times for business travel.
@@ -1445,109 +1491,110 @@
 5. They believe that the outcome of the election will not be affected by the delay in counting mail-in ballots.</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"22:20"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Change overnight on Election night. So if it takes us a few more days to get the count accurate and to count every bout, I think the good thing.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="n"/>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"22:59"</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think this is kind of an instant gratification Society. You know, people want to know who the winner is the night of the election. I'm not sure that's really practical anymore and I think the early voting maybe should be even expanded further than just three weeks or a month. Maybe it should start even earlier. I'm not sure what you can tell by putting a video camera on a ballot on a Ballot Box because when you going to see somebody stuffing a bunch of</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"22:59"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>I don't know really what that's going to prove but I one thing I don't like is when they try to limit the number of bear boxes. So you have like five ballot boxes for all of Houston. That's just voter suppression and that I can't stand. There needs to be more ballot boxes.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The person expresses uncertainty about what a certain action will prove.
-2. They express dislike for attempts to limit the number of bear boxes (likely a reference to ballot boxes).
-3. An example is given of having few ballot boxes for a large area (in this case, five ballot boxes for all of Houston).
-4. The person views this situation as voter suppression.
-5. They strongly express their opposition to this situation.
-6. The person believes that there needs to be more ballot boxes.</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
+      <c r="E47" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F47" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The person expresses that they don't like the limitation of the number of bear boxes.
+2. They give an example of five ballot boxes for all of Houston.
+3. The person believes that this limitation is a form of voter suppression.
+4. They strongly express their disapproval of this situation.
+5. The person suggests that there should be more ballot boxes.</t>
+        </is>
       </c>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"23:44"</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>I am opposed to doing away with the mail in ballots. Those are so convenient here in our County and Maricopa County, we had to request to get a mail-in ballot. And we did that one time and now we're on the permanent list to get them every time in my husband and I like it, we sit at the kitchen table with all our materials discuss everything we just have a lot of time that way and we feel like we're more educated voters</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is opposed to eliminating mail-in ballots.
 2. Mail-in ballots are convenient for the person and their husband.
@@ -1556,84 +1603,85 @@
 5. They discuss everything and feel that they are more educated voters because of this process.</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"23:44"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>hours by taking the time to sort through the issues and the candidates with the mail-in ballot. And I am a favor of that</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n"/>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"24:23"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>I'm in favor of the mail in ballots, if you have somehow of verifying. I mean making sure they're in by the date of the election there. People get them early enough. There shouldn't be any problem with putting them in. I am against ballot harvesting. And the main reason is because there is picture picture evidence video evidence of people taking huge massive ballots and dumping them in The Ballot Box.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author is in favor of mail-in ballots, as long as there is a way to verify them.
-2. They believe that people should have enough time to receive and send their mail-in ballots before the election date.
+2. They believe that people should have enough time to receive and mail their ballots back before the election date.
 3. The author is against ballot harvesting.
-4. They oppose ballot harvesting due to evidence of people dumping large amounts of ballots into ballot boxes.</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
+4. They oppose ballot harvesting mainly due to evidence of people collecting and dumping large numbers of ballots into ballot boxes.</t>
+        </is>
       </c>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"24:23"</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="D51" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Maybe they will legitimate, maybe they weren't if there's going to be ballot harvesting. I think there ought to be dead, you know, somebody goes in and takes in this batch of 150, 20, whatever number ballots, they have, but taking it</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There are concerns about the legitimacy of ballots.
 2. The issue of ballot harvesting is raised.
@@ -1641,400 +1689,417 @@
 4. The number of ballots in a batch is variable, with examples of 150 and 20 given.</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"25:08"</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>I'm not completely against male and it's very appropriate for people that are</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"25:08"</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t>elderly can't get to the math of voting Precinct or for military or for people that are out of town on Election Day. Bought the way they do it here in Nevada. It's it's just so many ways that it could be duplicate. People could be voting through the mail and system they have now I'm totally against</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The elderly may have difficulty getting to their voting precinct.
-2. There are issues with voting for military personnel and those out of town on Election Day.
-3. The current voting system in Nevada is criticized for its complexity and potential for duplicate votes.
-4. The source is against the current mail-in voting system.</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
+2. Additional groups who may have trouble voting in person include military personnel and people who are out of town on Election Day.
+3. The way voting is currently conducted in Nevada is criticized for being confusing and having the potential for duplication.
+4. The critic is against the current system of voting by mail.</t>
+        </is>
       </c>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"25:08"</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>be receiving a ballot in the mail like they do here.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"25:50"</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="D55" s="6" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"25:50"</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>I am very much for my vote by mail ballots, I think it's a wonderful solution to get a larger voter turnout. I don't think it would be much of a problem to require that the voting machines require or produce a paper record for people that vote in person. It might</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"25:50"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t>change some of the problems that Maricopa County had this year during the election. And I also think that the federal standard should be strengthened for voting machines and the</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the need for changes in some of the problems that Maricopa County faced during this year's election.
 2. It is suggested that the federal standard for voting machines should be strengthened.
 3. However, the text does not provide specific details about the problems faced during the election or the proposed changes to the federal standard for voting machines.</t>
         </is>
       </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"26:35"</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="D58" s="6" t="n"/>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"26:35"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>Yeah, I'm just not sure what the suspicion is with bad harvesting. If you have 100 beds or putting into a box, those ballots that have to be processed. I haven't personally, I don't recall hearing stories of that leading to any sort of large-scale fraud. I could be wrong. There could be problems there. One thing I do remember, is that there are problems with the envelopes. Like, it was little things, like, if the person didn't sign their name on a certain part of the envelope,</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
+      <c r="E59" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F59" s="6" t="n"/>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"26:35"</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Or there was an envelope that went inside of another envelope, it needs to be made more simple and not be looking at these nitpicky things whether or not the belt is legitimate or not.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
+      <c r="E60" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F60" s="6" t="n"/>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"27:18"</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t>Well I don't think looking to make sure a ballot is legitimate or not as a nit picky thing. But what I had to say was more of a question based on your individual states and it would Texas, there's several weeks things like three weeks and some of them are in the last week. It's every day that you can do it. Other other weeks, it's on the weekend for early voting, where you have County, Annex County, all, these, different places where you can go in and you don't have to give a reason, you just go in and you can vote.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"27:18"</t>
         </is>
       </c>
-      <c r="C62" s="4" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>Early in person. And I was just curious if that was something any of your State's do.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"27:52"</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
+      <c r="D63" s="6" t="n"/>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="n"/>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"27:52"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>I'm just going to make a comment on the the idea of federal oversight and standards. I like the idea of Standards but I do think the states still need to have control and settle out of the rules for a couple reasons. One is Alaska is going to be very different than California or Texas or New York. So I think there are some valid reasons for why States ought to be in control. I also think that if there's a supermajority in the</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
-      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"27:52"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The federal government, the federal government party that's in control, could set some rules and defined some things that could end up being a lot of voter suppression.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The federal government has the power to set rules and definitions.
 2. The party in control of the federal government can influence these rules.
 3. Some of these rules or definitions could lead to voter suppression.</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>64</v>
-      </c>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"27:52"</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n"/>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"28:37"</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>I think my biggest struggle with the mailing voting is determinant is how you determine and I'm completely ignorant and what I'm saying right now. I don't quote, I don't really understand how they're verified, but I don't really struggle with knowing how you</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n"/>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"28:37"</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> can determine whether a vote is valid. I mean, it seems like it would be easy to get a hold of other people's ballots and vote for them. Like I said, I don't understand the process completely, but that is a struggle with mine.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is about determining the validity of votes.
 2. The author mentions the possibility of obtaining other people's ballots and voting for them.
@@ -2042,71 +2107,74 @@
 4. The author mentions having a struggle with the voting process.</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"29:17"</t>
         </is>
       </c>
-      <c r="C69" s="4" t="inlineStr">
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>So what I meant to say is, you know, it's not nitpicking to what prove that balancer legitimate. It's the fact that I remember hearing that if a person didn't sign the envelope in the right space that they didn't put the date on the envelope. If they put the wrong envelope, instead of another, that that's what I mean. They could simpler to prove that there are legitimate</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"29:17"</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
+      <c r="D70" s="6" t="n"/>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="n"/>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"30:56"</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t>I'm off for a government-issued ID to vote. I don't see any reason why anybody shouldn't be able to get one doesn't matter. If you're disabled elderly you have something in your hands. They don't even charge you to get just an idea if you don't have a driver's license at the DMV. So there's no reason why you shouldn't be able to get a valid federal ID photo ID to vote.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F71" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is about obtaining a government-issued ID to vote.
 2. The author believes that anyone should be able to get a government-issued ID.
@@ -2115,30 +2183,30 @@
 5. The author concludes that there is no reason why a person should not be able to get a valid federal ID photo ID to vote.</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"31:25"</t>
         </is>
       </c>
-      <c r="C72" s="4" t="inlineStr">
+      <c r="D72" s="6" t="inlineStr">
         <is>
           <t>I agree. I think having a valid federal ID is important and that's something that should be implemented. I also, as I said just previously, I think the control of how things are done should be left up to the states and the federal government, shouldn't have a complete oversight on that.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that having a valid federal ID is important.
 2. They think this should be implemented.
@@ -2146,199 +2214,204 @@
 4. They do not believe the federal government should have complete oversight on this issue.</t>
         </is>
       </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"31:45"</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="D73" s="6" t="n"/>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"31:45"</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t>I'm 100% in favor of the ID requirement. I would be interested in how it would work if Congress did set federal guidelines for voting. I would actually like to consider seeing how that could go. It might be, might be worth while it might take a lot of argument out of things. I kind of think we need to get Google Amazon and apple involved because they seem to be able to keep track of people. Very, very</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>73</v>
-      </c>
+      <c r="E74" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F74" s="6" t="n"/>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"31:45"</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>Very well and know where each person is at all times and I think they would know if you duplicated your vote. That's my thought.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"32:25"</t>
         </is>
       </c>
-      <c r="C76" s="4" t="inlineStr">
+      <c r="D76" s="6" t="inlineStr">
         <is>
           <t>I'm just wondering so when you vote in by mail, I've gotten a bad before but I haven't actually used it. I usually vote in person but I don't know. Is there any means of proving your identification when you vote by mail? Not sure how that works. But I do remember being a little surprised. I used to have to show an ID and now when I go in to vote they just asked for my address and the okay it's where you live and then it almost it's</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text is about voting by mail and the requirement for identification.
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The text is about voting by mail and the need for identification.
 2. The author has not used mail-in voting before but usually votes in person.
-3. In mail-in voting, there is a doubt about the means of proving one's identification.
-4. The author has a past experience of showing an ID while voting in person.
-5. However, when voting in person now, the author is only asked for their address and proof of residence.
-6. The process of mail-in voting seems to be different and less strict in terms of identification.</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
+3. In mail-in voting, there is a requirement for identification, but the author is unsure about the process.
+4. In contrast, when voting in person, the author was asked for their address and confirmed their residence before being allowed to vote.</t>
+        </is>
       </c>
     </row>
     <row r="77" ht="12.5" customHeight="1">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>"32:25"</t>
         </is>
       </c>
-      <c r="C77" s="4" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> A little surprising that they don't ask for the ID, but maybe that's because in my local area, there doesn't seem to be a concern that you show an ID.</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text discusses the absence of an ID requirement in a certain context.
+      <c r="E77" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F77" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The text discusses the absence of an ID requirement in a certain situation.
 2. The speaker finds this absence surprising.
 3. The speaker suggests that this lack of ID requirement may be due to local customs or concerns.
 4. In the speaker's local area, there does not seem to be a concern about showing an ID.</t>
         </is>
       </c>
-      <c r="F77" t="n">
-        <v>76</v>
-      </c>
     </row>
     <row r="78" ht="12.5" customHeight="1">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>"33:07"</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>John here in Arizona, what we do is we sign our envelope that we put our early ballot in, and they do signature matching to match your signature. When you did sign up for the early ballot and that is supposed to be the</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>77</v>
-      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79" ht="12.5" customHeight="1">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>"33:25"</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>78</v>
-      </c>
+      <c r="D79" s="6" t="n"/>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80" ht="12.5" customHeight="1">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>"33:25"</t>
         </is>
       </c>
-      <c r="C80" s="4" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>Yeah, North Carolina. I think. In addition to you signing your ballot, you also have to have a witness. The witness can be a neighbor, it can be your spouse. So I'm not sure that the witness really adds a whole lot to it, but I think that's a requirement here in North Carolina.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The location mentioned is North Carolina.
 2. The voter is required to sign their ballot.
@@ -2347,53 +2420,54 @@
 5. The role of the witness is unclear in its significance.</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="81" ht="12.5" customHeight="1">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>"33:42"</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>Well, I can say this if it came to signature verification, my handwriting is so bad. It never looks the same twice. So I'm sure that my ballots would be thrown out immediately. So I'm I'm all for some kind of what you guys have said about National or federal ID. I'm all for it. And I, if there would be a way to incorporate that into</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>80</v>
-      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n"/>
     </row>
     <row r="82" ht="12.5" customHeight="1">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>"33:42"</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The mail-in ballots I would be for that as well because I'm praying promise you, my, my vote would get thrown out in a hurry because my signature never matches twice.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person is in favor of mail-in ballots.
 2. They are concerned that their own mail-in ballot might get rejected.
@@ -2401,30 +2475,30 @@
 4. They claim that their signature varies and might be considered invalid.</t>
         </is>
       </c>
-      <c r="F82" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="83" ht="12.5" customHeight="1">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>"34:21"</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="D83" s="6" t="inlineStr">
         <is>
           <t>Yeah, it's going to agree with that. Well, if I'm tired of from in a hurry and I, my handwriting looks like crap, you know? And if I got plenty of time, or if I'm feeling good, I try to write really neatly, you know. And then you have a lot of people, a lot of young people today the Millennials and the Generation Z. They can't write eat. Anyway, they just print you know, and so I don't know if that's enough to prove you ID but you know all the kids today can't write any.</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person agrees to consent with something mentioned before the text.
 2. If the person is in a hurry, their handwriting may become difficult to read.
@@ -2433,191 +2507,198 @@
 5. The author questions if the inability to write in cursive is enough to confirm someone's identity.</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="84" ht="12.5" customHeight="1">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>"34:21"</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Way. They just they don't know what cursive is, that's the side rant, you know, I don't like that but whatever, this way it is, I</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>83</v>
-      </c>
+      <c r="E84" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F84" s="6" t="n"/>
     </row>
     <row r="85" ht="12.5" customHeight="1">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>"35:00"</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t>I guess one question I have I heard at least two people say the terms federal ID. I think right now there's really not a federal ID, it state ID. So I'm just wondering if somebody's looking at trying to add in a federal ID, versus your state ID and there was something else that I was going to say and now I can't even remember what it was. So</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>84</v>
-      </c>
+      <c r="E85" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F85" s="6" t="n"/>
     </row>
     <row r="86" ht="12.5" customHeight="1">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>"35:24"</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t>Oh yeah. And I'd heard federal ID several times, but I'm okay with a state state issued identification. But my other issue with the signature verification is what what process is used to verify those signatures. I mean if it's a purely visual</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>85</v>
-      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87" ht="12.5" customHeight="1">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="n">
         <v>48641</v>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>"35:24"</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t>Verification than to me. That process is very subjective and could take forever.</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
-        <v>86</v>
-      </c>
+      <c r="E87" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F87" s="6" t="n"/>
     </row>
     <row r="88" ht="12.5" customHeight="1">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>"35:55"</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="D88" s="6" t="inlineStr">
         <is>
           <t>That's exactly what I was thinking, it's one person's subjective opinion and then if you have some sort of scanner computer, do it, people probably wouldn't trust that either. The only thing I thought about with the ideas now they have I think it's Federal, yes, where you have a real ID and that's for traveling outside. The United States on an international flight. You need to have the new drivers license. That's verified. I guess more verified than a</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>87</v>
-      </c>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89" ht="12.5" customHeight="1">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>"35:55"</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Regular license, it's a real ID. So maybe that could be incorporated into voting somehow</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>88</v>
-      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90" ht="12.5" customHeight="1">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>"36:33"</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t>I remember what my the thought was and I don't know how your states are but I know in Texas. Would he get a driver's license? They get both of your thumb prints. And if that is something that is done widespread than it seems like that's something that could be used. And with this, the way, I like electronics are not all the way. All the I th step is going there should be a way at some point that people can do their thumbprint for, you know, I</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91" ht="12.5" customHeight="1">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>"37:28"</t>
         </is>
       </c>
-      <c r="C91" s="4" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>In general, I think that people that have served their time after being convicted and sentenced for a felony should be allowed to vote but maybe it should be dependent on you know case-by-case individual because of someone's has a felony for possession of selling marijuana. I definitely think they should be able to vote. Again if you're a massive if you're a mass shooter and you you went up and lit up you know, two dozen people and</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F91" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The writer thinks that people who have served their time after being convicted and sentenced for a felony should generally be allowed to vote.
 2. The writer suggests that voting rights for felons could be dependent on a case-by-case basis.
@@ -2625,146 +2706,148 @@
 4. However, the writer also suggests that there might be exceptions to this rule, such as for felons who have committed mass shootings and caused harm to many people.</t>
         </is>
       </c>
-      <c r="F91" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="92" ht="12.5" customHeight="1">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>"37:28"</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Killed a bunch of innocent people that person probably should never vote a gap. So I think maybe there has to be a case-by-case, determination, to some extent.</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the killing of innocent people.
 2. It suggests that the person responsible for such an act should probably not be allowed to vote.
-3. The text also suggests that the decision about whether or not to allow this person to vote should be made on a case-by-case basis.
-4. The text implies that there may be some exceptions to the general rule that people who commit such acts should not be allowed to vote.</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
+3. The text also mentions that there should be a case-by-case determination regarding an individual's right to vote.
+4. This determination may be extended to some degree, suggesting that there may be some exceptions to the general rule.</t>
+        </is>
       </c>
     </row>
     <row r="93" ht="12.5" customHeight="1">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>"38:09"</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t>Does anybody in our group know why? We take that right away. I honestly have no idea.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
+      <c r="E93" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F93" s="6" t="n"/>
     </row>
     <row r="94" ht="12.5" customHeight="1">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>"38:16"</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t>I worked in a prison and I'll tell you A lot of those characters. You wouldn't want them voting after they risk, but and the other hand, there's a lot of them that are in for minor offenses and I really believe they should be allowed to vote. It should be a case by case.</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is about the speaker's experience working in a prison.
-2. The speaker has encountered many prisoners who they believe should not be allowed to vote due to their criminal behavior.
+2. The speaker has encountered many prisoners who they believe should not be allowed to vote due to the nature of their crimes.
 3. However, the speaker also believes that some prisoners, specifically those who have committed minor offenses, should be allowed to vote.
 4. The speaker suggests that voting rights for prisoners should be evaluated on a case-by-case basis.</t>
         </is>
       </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
     </row>
     <row r="95" ht="12.5" customHeight="1">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>"38:39"</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
+      <c r="D95" s="6" t="inlineStr">
         <is>
           <t>I was just wondering, is this a big issue? Do we have a lot of felons that are wanting to vote? I'm in favor, like Sharon said, on a case-by-case basis of restoring their rights,</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of felons voting.
 2. There is a question about whether this is a significant issue.
 3. There is also a question about the number of felons who want to vote.
-4. The speaker expresses support for restoring voting rights for felons on a case-by-case basis, as Sharon does.</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
+4. The speaker expresses support for restoring voting rights for felons on a case-by-case basis.
+5. This view is attributed to someone named Sharon.</t>
+        </is>
       </c>
     </row>
     <row r="96" ht="12.5" customHeight="1">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>"38:54"</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
         <is>
           <t>I also agree with the case by case basis or restoring their right. Also colonies are divided into various classes class 1. Bella need versus a class 5 or Class 6 felony. That could have a big impact on a to I agree with an I don't know if it was John or Sam that said it, but I think also somebody a mass murderer should never get</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is suggested that restoring someone's rights should be considered on a case-by-case basis.
 2. Colonies are categorized into different classes, ranging from Class 1 to Class 6 felony.
@@ -2773,190 +2856,194 @@
 5. It is not clear who said that a mass murderer should never get their rights restored, but it is agreed upon.</t>
         </is>
       </c>
-      <c r="F96" t="n">
-        <v>95</v>
-      </c>
     </row>
     <row r="97" ht="12.5" customHeight="1">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>"38:54"</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Their rights back to vote, but somebody that was maybe selling a little pot on the side. Yeah. They can they can get their vote back case-by-case basis. I think is the best scenario.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>96</v>
-      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98" ht="12.5" customHeight="1">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>"39:39"</t>
         </is>
       </c>
-      <c r="C98" s="4" t="inlineStr">
+      <c r="D98" s="6" t="inlineStr">
         <is>
           <t>I think I think it's a good idea when you were talking about the class. I think if anytime you open something up this is a human resources professional you open up something on a case-by-case basis. You're just opening yourself up for opportunity of claims of racism or other discrimination because of doing it Case by case, I think it has to be something specific such as a class.</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker thinks it is a good idea to consider the proposal discussed in the class.
 2. They suggest that if a human resources professional opens up something on a case-by-case basis, it could lead to the opportunity of claims of racism or other discrimination.
 3. The speaker believes that any action taken should be specific to a class, rather than on a case-by-case basis.</t>
         </is>
       </c>
-      <c r="F98" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="99" ht="12.5" customHeight="1">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>"40:06"</t>
         </is>
       </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>I think that's true. I was thinking in my mind, what would a person have to do with? You have to go before a judge and have them determine whether, you know, your case is one, that's lenient enough light enough to get your voting rights back so that could be messy, but it just seems like all or nothing. Doesn't make sense either. Like none of them can vote or all of them can, so it would be tricky, but I think it does have to be modified.</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The process for regaining voting rights after a felony conviction involves appearing before a judge for determination.
-2. This process could be "messy" or complicated.
-3. It's unclear why the current system is "all or nothing," with either all or no felons able to vote.
-4. The system for restoring voting rights after a felony conviction should be modified.</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>98</v>
+2. This process could be "messy" and may not result in a lenient outcome.
+3. It is unclear why there is not a middle ground for voting rights restoration, with some felons able to vote and others not.
+4. The current all-or-nothing approach does not make sense.
+5. The system for voting rights restoration after a felony conviction should be modified.</t>
+        </is>
       </c>
     </row>
     <row r="100" ht="12.5" customHeight="1">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>"40:36"</t>
         </is>
       </c>
-      <c r="C100" s="4" t="inlineStr">
+      <c r="D100" s="6" t="inlineStr">
         <is>
           <t>I'm going to interrupt real quick because it said is getting ready to cut me off. But what I will say is also either may be a time limit after they get out of jail to make sure there's not recidivism to make sure before they are given the right to vote.</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F100" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests an interruption to discuss the issue of voting rights for individuals after they are released from jail.
 2. There may be a time limit imposed on former inmates before they can exercise their right to vote.
 3. This time limit is meant to prevent recidivism and ensure that individuals are ready to vote.</t>
         </is>
       </c>
-      <c r="F100" t="n">
-        <v>99</v>
-      </c>
     </row>
     <row r="101" ht="12.5" customHeight="1">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B101" s="4" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>"42:11"</t>
         </is>
       </c>
-      <c r="C101" s="4" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>I like the idea of criminal penalties. I don't see any reason why we should put up with allowing anyone to intimidate a voter whenever they're casting their vote as far as observers. I think this is a solution looking for a problem. I don't recall ever having any major problems with with voting and the folks that work at the polling. Places. Perform. That Duty for us and from everything, I remember from the last election,</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>100</v>
-      </c>
+      <c r="E101" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F101" s="6" t="n"/>
     </row>
     <row r="102" ht="12.5" customHeight="1">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B102" s="4" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>"42:11"</t>
         </is>
       </c>
-      <c r="C102" s="4" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Section having political party, observers at the polling places just cause more problems than they were worth.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>101</v>
-      </c>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F102" s="6" t="n"/>
     </row>
     <row r="103" ht="12.5" customHeight="1">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B103" s="4" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>"42:49"</t>
         </is>
       </c>
-      <c r="C103" s="4" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree the people at every time, you know, location that I've gone to vote, I think the people that run those polling, places are fantastic, and I definitely, don't think there should be people with, with weapons standing outside of vote, polling places, nor do. I think that there should be laws where you can't give people water and food when they're standing in line, especially in cases, where people have to wait two or three hours to vote, which is absolutely insane. I can't</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F103" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The people who run polling places are generally considered fantastic.
 2. It is not appropriate for people to carry weapons outside of voting locations.
@@ -2964,30 +3051,30 @@
 4. It is unacceptable for people to have to wait for hours in line to vote.</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="104" ht="12.5" customHeight="1">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B104" s="4" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>"42:49"</t>
         </is>
       </c>
-      <c r="C104" s="4" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> imagine ever waiting, you know, I never have to wait more than five minutes to vote of people in line for hours. That's just voter suppression and it makes me sick.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F104" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Voter suppression is a problem.
 2. Some people have to wait in line for hours to vote.
@@ -2995,48 +3082,50 @@
 4. The author finds voter suppression sickening.</t>
         </is>
       </c>
-      <c r="F104" t="n">
-        <v>103</v>
-      </c>
     </row>
     <row r="105" ht="12.5" customHeight="1">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B105" s="4" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>"43:32"</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>104</v>
-      </c>
+      <c r="D105" s="6" t="n"/>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F105" s="6" t="n"/>
     </row>
     <row r="106" ht="12.5" customHeight="1">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B106" s="4" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>"43:32"</t>
         </is>
       </c>
-      <c r="C106" s="4" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>Sam John. I couldn't agree with both of you more. I think every thing both of you said was fantastic. I do also like the idea of maybe having every state to a random audit of various counties are precincts or whatever just on a random basis, just to check the system each and every federal election</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F106" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Sam John agrees with both parties.
 2. He thinks their ideas are fantastic.
@@ -3044,232 +3133,237 @@
 4. This is to check the system and ensure its integrity.</t>
         </is>
       </c>
-      <c r="F106" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="107" ht="12.5" customHeight="1">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B107" s="4" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>"44:05"</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>106</v>
-      </c>
+      <c r="D107" s="6" t="n"/>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F107" s="6" t="n"/>
     </row>
     <row r="108" ht="12.5" customHeight="1">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B108" s="4" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>"44:05"</t>
         </is>
       </c>
-      <c r="C108" s="4" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>I cannot imagine the chaos if they made it legal for an observer to challenge a voter on-site at the polls, that seems like a very terrible idea. To me, also, I worked the polls years ago, seems like we could have observers and there were guidelines for them, and I think they just had to stand quietly and observe and not speak to any of the voters. And at that time, things went smoothly.</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The idea of allowing an observer to challenge a voter on-site at the polls could lead to chaos.
-2. The text's author worked at the polls in the past and observed that things ran smoothly.
-3. At that time, observers were required to follow guidelines, which included standing quietly and not speaking to any voters.</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>107</v>
-      </c>
+      <c r="E108" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F108" s="6" t="n"/>
     </row>
     <row r="109" ht="12.5" customHeight="1">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B109" s="4" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>"44:05"</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>108</v>
-      </c>
+      <c r="D109" s="6" t="n"/>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F109" s="6" t="n"/>
     </row>
     <row r="110" ht="12.5" customHeight="1">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B110" s="4" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>"44:37"</t>
         </is>
       </c>
-      <c r="C110" s="4" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>Yeah, there shouldn't be any kind of intimate. I remember hearing a story about William rehnquist, before he was a Supreme Court, judge in before he was even a judge, may be a lawyer. When his younger days used to go out and do exactly that, he would go to polling places and challenge. People tell him, you know, do you really have the right to be here and vote in that? So even someone like him used to do it back in the day out say quickly to to I think peachy maybe was asking about how many</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>109</v>
-      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F110" s="6" t="n"/>
     </row>
     <row r="111" ht="12.5" customHeight="1">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B111" s="4" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>"44:37"</t>
         </is>
       </c>
-      <c r="C111" s="4" t="inlineStr">
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Felons, I just looked at up. It's estimated. There's 5.2 million people in that category where their exponents and they can't vote.</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>110</v>
-      </c>
+      <c r="E111" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F111" s="6" t="n"/>
     </row>
     <row r="112" ht="12.5" customHeight="1">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>"45:18"</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>111</v>
-      </c>
+      <c r="D112" s="6" t="n"/>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F112" s="6" t="n"/>
     </row>
     <row r="113" ht="12.5" customHeight="1">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B113" s="4" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>"45:18"</t>
         </is>
       </c>
-      <c r="C113" s="4" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t>First thought I had is talking about intimidation. Definitely shouldn't be the case. I don't know if it's law everywhere, but there is a perimeter that people cannot get within. Unless they're standing in line to vote. The second thing is, I've worked polling places as well and have had people who were observers and they were like, just look, stay just quiet. Observing making sure that the people working the election work.</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>112</v>
-      </c>
+      <c r="E113" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F113" s="6" t="n"/>
     </row>
     <row r="114" ht="12.5" customHeight="1">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>"45:18"</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="D114" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Guiding people how to vote and things like that. It wasn't contesting somebody's eligibility to vote and where I have seen observers, I guess most recently has been in the counting of the vote and having people there to be able to ensure what's accurate,</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F114" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Guiding people on how to vote.
 2. Observers ensure accuracy in the counting of votes.
 3. Observers are not used to contest someone's eligibility to vote.
-4. Most recent observation of observers has been during the counting of votes.</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>113</v>
+4. Most recent observation of observers was during the counting of votes.</t>
+        </is>
       </c>
     </row>
     <row r="115" ht="12.5" customHeight="1">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>"47:18"</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>114</v>
-      </c>
+      <c r="D115" s="6" t="n"/>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F115" s="6" t="n"/>
     </row>
     <row r="116" ht="12.5" customHeight="1">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>"47:18"</t>
         </is>
       </c>
-      <c r="C116" s="4" t="inlineStr">
+      <c r="D116" s="6" t="inlineStr">
         <is>
           <t>Okay, this is actually not about these but John thank you for looking at up about how many felons my I think what I really wanted to know is how many of those felons actually care or want their voting rights reinstated and I mean how could we know that? But I just wondered if that's a big thing or if it's not even a huge, huge topic, thanks. Oh. And on this Congressional funding, honestly.</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The user is not interested in discussing about "these" but is thanking John.
 2. The user wants to know how many felons care or want their voting rights reinstated.
@@ -3277,171 +3371,172 @@
 4. The user mentions Congressional funding, but it is unclear what specific information they are seeking.</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>115</v>
-      </c>
     </row>
     <row r="117" ht="12.5" customHeight="1">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>"47:18"</t>
         </is>
       </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I don't, I don't feel strong feelings one way or the other.</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>116</v>
-      </c>
+      <c r="E117" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F117" s="6" t="n"/>
     </row>
     <row r="118" ht="12.5" customHeight="1">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>"47:53"</t>
         </is>
       </c>
-      <c r="C118" s="4" t="inlineStr">
+      <c r="D118" s="6" t="inlineStr">
         <is>
           <t>My problem with Congressional funding of it is seems like the government tries to fund everything and prints more money to be able to do it. And I'm against that in general, the thought as far as the chief electoral officer, I think it should be up to the state and to each of the various counties to to vote for who the election officers are within their County. I do think there should be a moratorium on somebody who is running in an election.</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F118" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker has a problem with Congressional funding of elections.
 2. They believe that the government should not fund everything and should not print more money to do so.
-3. The speaker thinks that the Chief Electoral Officer should not be a federal position, but rather a state and county position.
-4. Each county should have the power to vote for who their election officers are.
-5. The speaker believes there should be a moratorium on someone running in an election serving as an election officer in that same election.</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>117</v>
+3. The speaker thinks that the Chief Electoral Officer should not be a federal position, but rather decided at the state and county level.
+4. They believe that each county should vote for who their election officers are.
+5. The speaker also thinks that there should be a moratorium for someone running in an election to serve as an election officer.</t>
+        </is>
       </c>
     </row>
     <row r="119" ht="12.5" customHeight="1">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B119" s="4" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
         <is>
           <t>"47:53"</t>
         </is>
       </c>
-      <c r="C119" s="4" t="inlineStr">
+      <c r="D119" s="6" t="inlineStr">
         <is>
           <t>While they are the chief electoral officer. I think that's not right. To be the one overseeing the election when you're running for office.</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F119" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author expresses concern about the role of the chief electoral officer.
 2. The concern is that the chief electoral officer oversees the election while running for office.
 3. The author thinks this situation is not right.</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>118</v>
-      </c>
     </row>
     <row r="120" ht="12.5" customHeight="1">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>"48:31"</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>Yeah, I agree with what you said and then also I guess, as long as it's not a situation where a secretary of state can change the outcome of an election and I think you've got to give credit to the one in Georgia who resisted, you know, efforts from Trump to find 11,000 votes or whatever it was. He did the right thing and I think some other ones did as well but I guess, you know,</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The person agrees with an unspecified statement made previously.
-2. It is important that a Secretary of State cannot change the outcome of an election.
-3. The Secretary of State in Georgia resisted efforts from Trump to find 11,000 votes.
-4. This Secretary of State did the right thing.
-5. Some other Secretary of States also did the right thing.
-6. The speaker implies that not all Secretary of States resisted pressure to change election results.</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>119</v>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F120" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker agrees with an unspecified previous statement.
+2. The speaker thinks it's important that a Secretary of State cannot change the outcome of an election.
+3. The speaker mentions a Secretary of State in Georgia who resisted pressure from Trump to find 11,000 votes.
+4. The speaker believes this Secretary of State did the right thing.
+5. The speaker acknowledges that some other Secretaries of State also did the right thing.</t>
+        </is>
       </c>
     </row>
     <row r="121" ht="12.5" customHeight="1">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B121" s="4" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>"48:31"</t>
         </is>
       </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> No, finding some 19 nonpartisan would probably be just about impossible. You know, you tried to do it that way but I guess, as long as the secretaries of State can't change the outcomes,</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>120</v>
-      </c>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F121" s="6" t="n"/>
     </row>
     <row r="122" ht="12.5" customHeight="1">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B122" s="4" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>"51:13"</t>
         </is>
       </c>
-      <c r="C122" s="4" t="inlineStr">
+      <c r="D122" s="6" t="inlineStr">
         <is>
           <t>I haven't had enough sleep. I can't, I can't come up with a question and 92nd, I really think they're rushing us through this. I, you know, there's certain topics where we might not have a lot to say, but I think we probably have more to say on a number of those topics. It just feels like they're getting us through this and like a half an hour and then the, the experts talk for two hours, I don't know. I think we should have more time to for discussion here.</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
+      <c r="E122" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F122" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person has not had enough sleep.
 2. They are struggling to come up with a question.
@@ -3449,33 +3544,34 @@
 4. There are certain topics that they think the group could discuss more.
 5. They feel that they are being rushed through the process.
 6. They think the group should have more time for discussion.
-7. The experts speak for a longer duration than the group.</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>121</v>
+7. The experts are given more time to talk than the group.
+8. The person is unsure about the process and its time allocation.</t>
+        </is>
       </c>
     </row>
     <row r="123" ht="12.5" customHeight="1">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B123" s="4" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>"52:49"</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>Just decide question. I just thought of, I wonder how many of you think that if we have a president who's been convicted and sentenced with a felony? Whether that not only if they should vote will whether they should be able to run it for as president whether they're in house arrest or you know, actually in prison. But that's going to become a big issue. I think potentially and I wonder what people think of the</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F123" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author has raised a question about the possibility of a president who has been convicted and sentenced with a felony.
 2. The author wonders if this president should be allowed to vote or run for presidency while under house arrest or in prison.
@@ -3483,158 +3579,166 @@
 4. The author is seeking the opinions of others on this topic.</t>
         </is>
       </c>
-      <c r="F123" t="n">
-        <v>122</v>
-      </c>
     </row>
     <row r="124" ht="12.5" customHeight="1">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B124" s="4" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>"53:48"</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>123</v>
-      </c>
+      <c r="D124" s="6" t="n"/>
+      <c r="E124" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F124" s="6" t="n"/>
     </row>
     <row r="125" ht="12.5" customHeight="1">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B125" s="4" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>"53:48"</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="D125" s="6" t="inlineStr">
         <is>
           <t>Alton. I think this is an excellent question, John. I actually agree with you that they are kind of rushing to son. I wish we could have been in person and met each other in person. But anyway, Alton I like your question.</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>124</v>
-      </c>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F125" s="6" t="n"/>
     </row>
     <row r="126" ht="12.5" customHeight="1">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>"54:03"</t>
         </is>
       </c>
-      <c r="C126" s="4" t="inlineStr">
+      <c r="D126" s="6" t="inlineStr">
         <is>
           <t>Mike, the question I was trying to formulate had to do with automatic registration in so I just like make maybe one of the questions could throw that in there specifically but yeah all the questions look good to me. Otherwise</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>125</v>
-      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127" ht="12.5" customHeight="1">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B127" s="4" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>"55:06"</t>
         </is>
       </c>
-      <c r="C127" s="4" t="inlineStr">
+      <c r="D127" s="6" t="inlineStr">
         <is>
           <t>I like that question because I feel so strongly about mail-in voting. And how do they even know?</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>126</v>
-      </c>
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F127" s="6" t="n"/>
     </row>
     <row r="128" ht="12.5" customHeight="1">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="n">
         <v>48649</v>
       </c>
-      <c r="B128" s="4" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>"55:06"</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="D128" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It's the person that's supposed to be voting, so that's a great question.</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>127</v>
-      </c>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F128" s="6" t="n"/>
     </row>
     <row r="129" ht="12.5" customHeight="1">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B129" s="4" t="inlineStr">
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>"55:58"</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>128</v>
-      </c>
+      <c r="D129" s="6" t="n"/>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F129" s="6" t="n"/>
     </row>
     <row r="130" ht="12.5" customHeight="1">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="n">
         <v>48628</v>
       </c>
-      <c r="B130" s="4" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>"55:58"</t>
         </is>
       </c>
-      <c r="C130" s="4" t="inlineStr">
+      <c r="D130" s="6" t="inlineStr">
         <is>
           <t>Do we have any constitutional scholars in here that could maybe answer Petey's question here? I not sure if it would take a constitutional amendment or not to change what the state's mandate for laws for boating, it might take something more than like an amendment to the Constitution to change that.</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F130" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is asking if there are any constitutional scholars present who can answer a question about boat laws.
 2. It is unclear what question about boat laws is being asked.
@@ -3642,349 +3746,238 @@
 4. It is also mentioned that it might take something more than an amendment to the Constitution to change the boat laws.</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>129</v>
-      </c>
     </row>
     <row r="131" ht="12.5" customHeight="1">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="n">
         <v>48671</v>
       </c>
-      <c r="B131" s="4" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>"56:29"</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="D131" s="6" t="inlineStr">
         <is>
           <t>That's the reason I asked is because I wondered if it would get into a huge legal battle we can talk about it. But if it's not realistic, then it's not realistic.</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>130</v>
-      </c>
+      <c r="E131" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F131" s="6" t="n"/>
     </row>
     <row r="132" ht="12.5" customHeight="1">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B132" s="4" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>"56:40"</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr">
+      <c r="D132" s="6" t="inlineStr">
         <is>
           <t>I think maybe even more than making universal laws for registration, I like to see laws that would universally prevent voter suppression. I don't mean to harp on this but I, you know, I heard of the ballot boxes being Limited in the in Houston or the county that Houston's in and that's there should be so many boxes for so much population. Something like that, I think probably should be Universal.</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F132" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The need for universal laws to prevent voter suppression is highlighted.
 2. An example of voter suppression is given, with limited ballot boxes in Houston or the county it's in.
-3. It is suggested that there should be a certain number of ballot boxes per population to ensure fair access to voting.</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>131</v>
+3. It is suggested that the number of ballot boxes should be proportional to the population.
+4. This proportional allocation of ballot boxes is suggested to be made universal.</t>
+        </is>
       </c>
     </row>
     <row r="133" ht="12.5" customHeight="1">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B133" s="4" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>"56:40"</t>
         </is>
       </c>
-      <c r="C133" s="4" t="inlineStr">
+      <c r="D133" s="6" t="inlineStr">
         <is>
           <t>Oil.</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>132</v>
-      </c>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F133" s="6" t="n"/>
     </row>
     <row r="134" ht="12.5" customHeight="1">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>"57:29"</t>
         </is>
       </c>
-      <c r="C134" s="4" t="inlineStr">
+      <c r="D134" s="6" t="inlineStr">
         <is>
           <t>Yeah, I just put this out there because it seems like the current political climate today is just going to prevent any of these good ideas from actually being adopted and implemented. And I'm just curious as to whether the experts were going to here on the panel. Think there's there's any possible traction for any of these things. Gaining any Steam,</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>133</v>
-      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="n"/>
     </row>
     <row r="135" ht="12.5" customHeight="1">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="n">
         <v>48655</v>
       </c>
-      <c r="B135" s="4" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>"57:29"</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>134</v>
-      </c>
+      <c r="D135" s="6" t="n"/>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="n"/>
     </row>
     <row r="136" ht="12.5" customHeight="1">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B136" s="4" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>"58:01"</t>
         </is>
       </c>
-      <c r="C136" s="4" t="inlineStr">
+      <c r="D136" s="6" t="inlineStr">
         <is>
           <t>I'm cynical but I doubt it I guess in general my thought is you have career politicians. And their main job is to try to stay in office and not really so much worried about anything else. And so if we tried to have some kind of a national thing, come up, I doubt we'd have any any good results, you have people who go in not having much in them, they spend time in Washington, all the sudden their multi millionaires and you know, someone</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>135</v>
-      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137" ht="12.5" customHeight="1">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="n">
         <v>48672</v>
       </c>
-      <c r="B137" s="4" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>"58:01"</t>
         </is>
       </c>
-      <c r="C137" s="4" t="inlineStr">
+      <c r="D137" s="6" t="inlineStr">
         <is>
           <t>He's doing that isn't really going to be looking for what's in our best interest. So that's my negative point for the</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. He is acting in a way that does not align with our best interests.
 2. This is the negative point regarding the unnamed entity.</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>136</v>
-      </c>
     </row>
     <row r="138" ht="12.5" customHeight="1">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B138" s="4" t="inlineStr">
+      <c r="C138" s="6" t="inlineStr">
         <is>
           <t>"58:36"</t>
         </is>
       </c>
-      <c r="C138" s="4" t="inlineStr">
+      <c r="D138" s="6" t="inlineStr">
         <is>
           <t>I think there is optimism, at least, in terms of mail-in voting because I've heard reason I've seen stories online where even Republicans now are being proponents of their voters, using the mail-in voting, because I think they realize what an advantage it was for for Democratic voters in 2020 and they want to get in on</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F138" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Optimism regarding mail-in voting has been expressed.
-2. This optimism exists for Republicans who are now advocating for their voters to use mail-in voting.
-3. The reason for this optimism is that Republicans have realized the advantage mail-in voting gave to Democratic voters in 2020.
-4. They want to take advantage of this method of voting for themselves in future elections.</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>137</v>
+2. This optimism exists at least among some Republicans.
+3. Some Republicans are advocating for their voters to use mail-in voting.
+4. This change of stance may be due to the perceived advantage mail-in voting gave to Democratic voters in 2020.
+5. Republicans want to take advantage of mail-in voting in future elections.</t>
+        </is>
       </c>
     </row>
     <row r="139" ht="12.5" customHeight="1">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="6" t="n">
         <v>10402</v>
       </c>
-      <c r="B139" s="4" t="inlineStr">
+      <c r="C139" s="6" t="inlineStr">
         <is>
           <t>"58:36"</t>
         </is>
       </c>
-      <c r="C139" s="4" t="inlineStr">
+      <c r="D139" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> they realized that it works. I think for the most part very well, Oregon has been all mail-in voting for a long time and I think that's something that's going to become more Universal.</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="E139" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F139" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
